--- a/medicine/Sexualité et sexologie/Fashion_health/Fashion_health.xlsx
+++ b/medicine/Sexualité et sexologie/Fashion_health/Fashion_health.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le massage Fashion health (ファッションヘルス, fasshon herusu?, littéralement « santé sur mesure »), ou plus simplement, herusu (health)  est une forme de massage pratiqué à l'intérieur de petits salons. Cette mise en scène contourne la loi japonaise du 1er avril 1957 réprimant la prostitution au Japon. Seuls le coït vaginal est visé par la loi et il n'y a, dans ce cas, pas de pénétration vaginale mais la sodomie reste possible.
 </t>
@@ -511,7 +523,9 @@
           <t>Rituel</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La masseuse se déshabille avant de dévêtir son client. Elle lui propose un bain, généralement dans un jacuzzi pour les salons de massage de luxe. C'est là qu'ils se baignent tous les deux et commencent les préliminaires. Puis la jeune femme propose au client un massage où elle enduit de l'huile sur le corps totalement nu de son partenaire. Si le client ne souhait pas de massage, la prestataire peut lui proposer un sukebe-isu (すけべ椅子?, étymologiquement « siège pervers »), comme dans les soaplands. Après ces activités, le client est libre de faire ce qu'il veut de sa jeune partenaire.
 Chaque health propose ses options originales : onani kansatsu (la masseuse se masturbe devant le client), honyo kansatsu (la masseuse vide sa vessie devant le client), sumata (relation sexuelle simulée où la fille chevauche le client et le masturbe entre ses cuisses), etc. Chaque pratique a son prix. Dans les seikan health, les masseuses introduisent leur doigt dans l'anus du client (gyaku herusu) puis le lèchent (anusu name). Dans les fashion health, la masseuse porte une tenue au goût du client (d'où le mot fashion qui veut dire « mode » en anglais).
@@ -544,7 +558,9 @@
           <t>Article connexe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prostitution au Japon</t>
         </is>
